--- a/public/csv_demo/demo-type-1.xlsx
+++ b/public/csv_demo/demo-type-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yan Tsarbopoulos\Documents\02. WEB Projects\00. Smart QR™ Project\02. Smart QR Assets\Files &amp; Paths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wificatalog_new\public\csv_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40794CE2-425B-451B-A736-F14B0F82429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Asian" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
   <si>
     <t>en</t>
   </si>
@@ -191,12 +190,6 @@
     <t>Μεγάλη</t>
   </si>
   <si>
-    <t>Salads</t>
-  </si>
-  <si>
-    <t>Σαλάτες</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -225,12 +218,42 @@
   </si>
   <si>
     <t>pdf_page</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Salads,Green Salad</t>
+  </si>
+  <si>
+    <t>Σαλάτες,Πράσινη σαλάτα</t>
+  </si>
+  <si>
+    <t>Ελεγχος εισιτηρίου</t>
+  </si>
+  <si>
+    <t>Ίνσταγκραμ</t>
+  </si>
+  <si>
+    <t>Η Γκαλερί μας</t>
+  </si>
+  <si>
+    <t>καλως ΗΡΘΑΤΕ</t>
+  </si>
+  <si>
+    <t>Προβολή PDF</t>
+  </si>
+  <si>
+    <t>Boston lettuce</t>
+  </si>
+  <si>
+    <t>Μαρούλι Βοστώνης</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,68 +668,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C1" s="10"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -714,15 +740,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,84 +757,87 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -818,57 +848,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:Z7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -878,9 +910,10 @@
       <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -888,15 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -904,88 +929,92 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -993,28 +1022,31 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1022,29 +1054,32 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>31</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1053,70 +1088,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C1" s="10"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1124,15 +1162,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1140,84 +1179,87 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1228,41 +1270,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -1272,10 +1316,11 @@
       <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1283,15 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1299,88 +1336,91 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1388,28 +1428,31 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1417,24 +1460,27 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>31</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1445,11 +1491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE4F833-DD94-4088-8F1F-14C12AD747A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="7"/>
@@ -1492,7 +1538,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -1536,11 +1582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC0C649-02B5-4819-9D64-7267904AFE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="7"/>
@@ -1584,7 +1630,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="2"/>
@@ -1600,10 +1646,10 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1644,11 +1690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3438A98-4DFF-4411-BAFF-BAD952BBCBB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,12 +1729,12 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="7"/>
       <c r="D1" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1711,7 +1757,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1755,11 +1801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125F897B-D72C-4637-A3DA-1D6A440D7096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="7"/>
@@ -1802,7 +1848,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1818,7 +1864,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -1862,11 +1908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DEA20B-E28A-488E-9F10-3FB317C17132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="7"/>
@@ -1909,7 +1955,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1925,7 +1971,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
